--- a/Documents/ProductBacklog-Team 2.xlsx
+++ b/Documents/ProductBacklog-Team 2.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Git Repository/Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/Git Repository/Repo/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A6C36-C02C-D240-A86E-B46944EE7690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F179C-15FC-094A-96BF-E72498A8FE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{87CF5E5E-6C6C-804E-B509-53A21BF814D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -61,13 +62,16 @@
   </si>
   <si>
     <t>Auto-Sign Up Through AMOS (?)</t>
+  </si>
+  <si>
+    <t>Sprint One</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +87,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +136,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -139,10 +158,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +485,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -470,12 +495,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="29" customHeight="1"/>
     <row r="3" spans="1:4" ht="21">
@@ -647,10 +672,98 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="40" customHeight="1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="40" customHeight="1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85C0017-1158-9844-8D56-ECC0DDD51486}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="32" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
